--- a/data/income_statement/2digits/size/17_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/17_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>17-Manufacture of paper and paper products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>17-Manufacture of paper and paper products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,833 +841,943 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1191918.20811</v>
+        <v>1245008.43791</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1386885.45242</v>
+        <v>1444067.88557</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1591432.34139</v>
+        <v>1680263.42085</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1771979.17291</v>
+        <v>1872624.0843</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2539464.75916</v>
+        <v>2656156.73182</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2783508.98837</v>
+        <v>2909569.49237</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2953956.54049</v>
+        <v>3105104.58607</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3086008.85156</v>
+        <v>3294607.25293</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3495032.21606</v>
+        <v>3668367.64089</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7093676.12724</v>
+        <v>7220553.3333</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7560908.21595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7839283.961010001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9313513.536</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1089979.25103</v>
+        <v>1137120.9979</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1279979.30697</v>
+        <v>1334883.39347</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1466324.72568</v>
+        <v>1548043.3779</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1638256.55431</v>
+        <v>1724706.53348</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2336421.93231</v>
+        <v>2440178.40412</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2551109.57418</v>
+        <v>2665895.46523</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2645107.66747</v>
+        <v>2785756.95104</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2821590.59752</v>
+        <v>3009103.69448</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3180716.70104</v>
+        <v>3335029.87447</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6235635.83808</v>
+        <v>6359795.75719</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6625715.55856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6886975.00844</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8233714.875</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>91783.89761</v>
+        <v>97645.44919</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>96406.43993000001</v>
+        <v>99140.22568</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>112506.21626</v>
+        <v>118743.00922</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>120525.60322</v>
+        <v>134361.70623</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>185143.50947</v>
+        <v>198796.46733</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>211929.33244</v>
+        <v>223058.88188</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>284841.20576</v>
+        <v>293759.65438</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>232064.17742</v>
+        <v>251134.03835</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>277957.01333</v>
+        <v>288143.33203</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>790126.81059</v>
+        <v>795940.47935</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>855422.28544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>876515.82154</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>991999.062</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>10155.05947</v>
+        <v>10241.99082</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>10499.70552</v>
+        <v>10044.26642</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>12601.39945</v>
+        <v>13477.03373</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>13197.01538</v>
+        <v>13555.84459</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>17899.31738</v>
+        <v>17181.86037</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>20470.08175</v>
+        <v>20615.14526</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>24007.66726</v>
+        <v>25587.98065</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>32354.07662</v>
+        <v>34369.52009999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>36358.50169</v>
+        <v>45194.43439</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>67913.47857000001</v>
+        <v>64817.09676</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>79770.37195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>75793.13103</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>87799.599</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>19274.89997</v>
+        <v>21591.38098</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>17309.41373</v>
+        <v>18865.48662</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>24875.13192</v>
+        <v>26129.98605</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>23481.75437</v>
+        <v>26590.49762</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>32060.24557</v>
+        <v>35179.52044</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>30893.46061</v>
+        <v>33458.1177</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>32592.48498</v>
+        <v>35060.73985</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>43827.91614</v>
+        <v>44320.23022999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>31504.8132</v>
+        <v>37844.46795000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>99167.56999</v>
+        <v>103278.38487</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>95872.90759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>101058.68901</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>164620.052</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>12952.78413</v>
+        <v>14816.91116</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>11131.85551</v>
+        <v>12473.49929</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>17538.74842</v>
+        <v>18425.66173</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>15782.0913</v>
+        <v>17584.21758</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>21299.88809</v>
+        <v>23280.90205</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>20854.05966</v>
+        <v>22845.2746</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>22896.26954</v>
+        <v>25018.71737</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>34270.64522</v>
+        <v>33286.92768</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>22083.83944</v>
+        <v>23190.21987</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>62057.69985</v>
+        <v>65828.12183</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>66077.0122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>68719.11563</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>133899.028</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5196.7871</v>
+        <v>5646.822939999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5813.97308</v>
+        <v>5984.67972</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5058.38846</v>
+        <v>5173.10475</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5728.86788</v>
+        <v>6871.61605</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8714.997380000001</v>
+        <v>9829.931569999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>7444.275819999999</v>
+        <v>7583.453739999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>7445.09832</v>
+        <v>7706.49003</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>7183.712550000001</v>
+        <v>8375.37751</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5790.217549999999</v>
+        <v>10993.07528</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>30365.77099</v>
+        <v>31674.80769</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>19550.9266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20783.30299</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>15645.391</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1125.32874</v>
+        <v>1127.64688</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>363.58514</v>
+        <v>407.30761</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2277.99504</v>
+        <v>2531.21957</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1970.79519</v>
+        <v>2134.66399</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2045.3601</v>
+        <v>2068.68682</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2595.12513</v>
+        <v>3029.38936</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2251.11712</v>
+        <v>2335.53245</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2373.55837</v>
+        <v>2657.92504</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3630.75621</v>
+        <v>3661.1728</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6744.099149999999</v>
+        <v>5775.455349999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>10244.96879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11556.27039</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>15075.633</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1172643.30814</v>
+        <v>1223417.05693</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1369576.03869</v>
+        <v>1425202.39895</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1566557.20947</v>
+        <v>1654133.4348</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1748497.41854</v>
+        <v>1846033.58668</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2507404.51359</v>
+        <v>2620977.21138</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2752615.52776</v>
+        <v>2876111.37467</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2921364.05551</v>
+        <v>3070043.84622</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3042180.93542</v>
+        <v>3250287.0227</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3463527.40286</v>
+        <v>3630523.172939999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6994508.55725</v>
+        <v>7117274.94843</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7465035.308360001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7738225.272</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9148893.483999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>992977.8161599999</v>
+        <v>1037067.7636</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1169726.21898</v>
+        <v>1216387.55493</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1336303.23107</v>
+        <v>1414608.13336</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1490248.80988</v>
+        <v>1572365.13904</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2159200.67962</v>
+        <v>2257258.50654</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2364245.17463</v>
+        <v>2466646.85327</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2513747.98055</v>
+        <v>2643083.46273</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2621534.30628</v>
+        <v>2793500.87503</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3019116.5735</v>
+        <v>3160695.03625</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6077951.80199</v>
+        <v>6193603.83189</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6409592.58261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6681031.31018</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7921066.266</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>767076.1843600001</v>
+        <v>808359.7715800001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>892891.2805499999</v>
+        <v>942597.7948200001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1054684.44514</v>
+        <v>1122281.49534</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1138397.93307</v>
+        <v>1212345.37666</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1662108.03393</v>
+        <v>1752616.86804</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1886976.36372</v>
+        <v>1984348.27491</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1945846.11552</v>
+        <v>2068697.32376</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2065832.97523</v>
+        <v>2212706.46391</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2319988.40991</v>
+        <v>2451304.18164</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4704622.84571</v>
+        <v>4802772.35794</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5002816.325069999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5254777.11781</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6110058.457</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>197035.15293</v>
+        <v>199696.70107</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>242349.99042</v>
+        <v>239503.94619</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>256043.62438</v>
+        <v>263003.75191</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>313522.44116</v>
+        <v>319968.0912</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>451756.57696</v>
+        <v>459492.41611</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>413104.20504</v>
+        <v>413498.81312</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>504104.11345</v>
+        <v>506349.92469</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>497721.67717</v>
+        <v>515537.20736</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>633459.08473</v>
+        <v>644178.7729000001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1301260.31127</v>
+        <v>1320757.45723</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1303432.53211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1321275.59468</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1703855.769</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>25049.30749</v>
+        <v>25164.22449</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>31539.00632</v>
+        <v>31052.06689</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>23719.66481</v>
+        <v>27219.23158</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>36562.46882</v>
+        <v>38065.56399</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>40055.92308</v>
+        <v>40213.87998999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>61430.24123000001</v>
+        <v>65524.64862</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>58522.58415</v>
+        <v>62249.06564</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>49558.90818</v>
+        <v>54621.53893</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>54704.48992</v>
+        <v>54336.90299</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>62763.32066</v>
+        <v>61012.42226</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>73177.80171000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>75922.02933</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>93898.811</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3817.17138</v>
+        <v>3847.06646</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2945.94169</v>
+        <v>3233.74703</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1855.49674</v>
+        <v>2103.65453</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1765.96683</v>
+        <v>1986.10719</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5280.14565</v>
+        <v>4935.3424</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2734.36464</v>
+        <v>3275.11662</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5275.16743</v>
+        <v>5787.148639999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>8420.745699999999</v>
+        <v>10635.66483</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>10964.58894</v>
+        <v>10875.17872</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>9305.324349999999</v>
+        <v>9061.594459999998</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>30165.92372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>29056.56836</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>13253.229</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>179665.49198</v>
+        <v>186349.29333</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>199849.81971</v>
+        <v>208814.84402</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>230253.9784</v>
+        <v>239525.30144</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>258248.60866</v>
+        <v>273668.44764</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>348203.83397</v>
+        <v>363718.70484</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>388370.35313</v>
+        <v>409464.5214</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>407616.0749600001</v>
+        <v>426960.38349</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>420646.62914</v>
+        <v>456786.14767</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>444410.82936</v>
+        <v>469828.13669</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>916556.75526</v>
+        <v>923671.11654</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1055442.72575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1057193.96182</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1227827.218</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>128836.87129</v>
+        <v>135742.63057</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>145254.89415</v>
+        <v>158332.78728</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>162450.67395</v>
+        <v>181715.97637</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>182655.99606</v>
+        <v>194915.55961</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>244338.5538</v>
+        <v>256453.47264</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>266494.1807</v>
+        <v>281329.87928</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>282458.58357</v>
+        <v>295159.59425</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>312255.73646</v>
+        <v>329700.36618</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>326083.42012</v>
+        <v>333739.51118</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>542282.76093</v>
+        <v>542846.11861</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>622379.9972400001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>631855.14619</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>692104.987</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>172.9917</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>115.39348</v>
+        <v>47.96247</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>571.89239</v>
+        <v>564.39239</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>305.38112</v>
+        <v>237.35048</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>994.93147</v>
+        <v>976.84674</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>341.26636</v>
+        <v>330.93407</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>113.72124</v>
+        <v>104.01987</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>11.52</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>77.84893</v>
+        <v>77.50892999999999</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>755.6626600000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>800.43824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>802.11824</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>920.807</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>35140.42897</v>
+        <v>37022.36994</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>39471.62009</v>
+        <v>42264.78673000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>47690.93614</v>
+        <v>52272.74634999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>51395.56887</v>
+        <v>56838.21633</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>73225.04955000001</v>
+        <v>75964.82346</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>77213.4126</v>
+        <v>82331.01967000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>81562.22186999999</v>
+        <v>86219.99794999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>81695.38952000001</v>
+        <v>88201.68867999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>89169.27369000002</v>
+        <v>93041.50413</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>175369.05596</v>
+        <v>176559.4368</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>199897.19082</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>207167.00785</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>224180.862</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>93523.45061999999</v>
+        <v>98547.26893000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>105667.88058</v>
+        <v>116020.03808</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>114187.84542</v>
+        <v>128878.83763</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>130955.04607</v>
+        <v>137839.9928</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>170118.57278</v>
+        <v>179511.80244</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>188939.50174</v>
+        <v>198667.92554</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>200782.64046</v>
+        <v>208835.57643</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>230548.82694</v>
+        <v>241487.1575</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>236836.2975</v>
+        <v>240620.49812</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>366158.04231</v>
+        <v>365531.01915</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>421682.36818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>423886.0201</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>467003.318</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>50828.62069</v>
+        <v>50606.66276</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>54594.92556</v>
+        <v>50482.05674</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>67803.30445</v>
+        <v>57809.32507</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>75592.61259999999</v>
+        <v>78752.88803</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>103865.28017</v>
+        <v>107265.2322</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>121876.17243</v>
+        <v>128134.64212</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>125157.49139</v>
+        <v>131800.78924</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>108390.89268</v>
+        <v>127085.78149</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>118327.40924</v>
+        <v>136088.62551</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>374273.99433</v>
+        <v>380824.99793</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>433062.72851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>425338.81563</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>535722.231</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11826.90687</v>
+        <v>16299.82196</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>12762.45747</v>
+        <v>21239.32562</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>12542.15405</v>
+        <v>21396.84368</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>10313.54294</v>
+        <v>12994.43813</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>19926.43852</v>
+        <v>21428.23995</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>18018.67963</v>
+        <v>24370.81841</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>24682.74528</v>
+        <v>30625.46518</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>29221.11288</v>
+        <v>36442.353</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>25453.9828</v>
+        <v>35056.31636</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>144423.7095</v>
+        <v>161691.23036</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>91708.27024000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>118513.55943</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>170710.066</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>68.28050999999999</v>
@@ -1781,13 +1792,13 @@
         <v>168.68835</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>446.2968499999999</v>
+        <v>131.8235</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>317.88087</v>
+        <v>158.68827</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>54.1926</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0.5175299999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,16 +1833,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>898.61975</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>76.1696</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>95.65454</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1835,76 +1851,86 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>2538.98667</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>216.66155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>8341.418879999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1162.856</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1746.92996</v>
+        <v>1779.45887</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1605.11862</v>
+        <v>1517.46851</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1574.5137</v>
+        <v>1741.77037</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1957.00218</v>
+        <v>2187.49834</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3193.19562</v>
+        <v>3148.3814</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3620.50942</v>
+        <v>4108.98486</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3575.25288</v>
+        <v>4024.68813</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4054.5081</v>
+        <v>4927.87852</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4211.03417</v>
+        <v>5967.74251</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>14478.05466</v>
+        <v>12923.99191</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>18879.82197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>20647.72865</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>14246.682</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>157.6386</v>
+        <v>258.35653</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>152.17315</v>
+        <v>331.08467</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>245.60253</v>
+        <v>256.52771</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>38.72167</v>
+        <v>66.50425</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>26.89058</v>
+        <v>44.00366</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>40.42149</v>
+        <v>40.52149</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>32.58079</v>
+        <v>28.71079</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>120.79266</v>
@@ -1913,79 +1939,89 @@
         <v>47.27573</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1553.62235</v>
+        <v>1506.03053</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>503.19614</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>498.94924</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>214.065</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>500.3833299999999</v>
+        <v>543.33395</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>147.46784</v>
+        <v>322.06069</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>316.8695300000001</v>
+        <v>1229.67014</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>111.37493</v>
+        <v>83.87492999999999</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>265.23984</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>819.91134</v>
+        <v>825.6561999999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>625.95898</v>
+        <v>471.08212</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5219.80458</v>
+        <v>5243.20993</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>718.0492800000001</v>
+        <v>792.4005</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>783.3309399999999</v>
+        <v>767.7309399999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1517.83512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1957.57407</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2461.099</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>170.75814</v>
+        <v>449.61836</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1168.11456</v>
+        <v>1182.4969</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>119.16817</v>
+        <v>266.19094</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>150.31481</v>
+        <v>150.22585</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>223.01603</v>
+        <v>223.80951</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>987.65111</v>
+        <v>1037.71007</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>589.16801</v>
+        <v>591.06371</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>499.00922</v>
+        <v>376.45144</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>242.08441</v>
@@ -1994,52 +2030,62 @@
         <v>1110.11644</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1262.22262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1378.57903</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3128.383</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>5306.32963</v>
+        <v>7135.99752</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5595.840389999999</v>
+        <v>8440.94888</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6763.89646</v>
+        <v>11233.13084</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4949.599730000001</v>
+        <v>5973.90514</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>11358.69152</v>
+        <v>12715.97947</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8010.49732</v>
+        <v>12136.48157</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>15736.77663</v>
+        <v>19344.18733</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>13938.70679</v>
+        <v>17896.7544</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>12368.725</v>
+        <v>17890.06138</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>111475.40188</v>
+        <v>128586.82427</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>53987.9109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>66028.22692</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>132011.982</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>24.14966</v>
@@ -2051,7 +2097,7 @@
         <v>11.08659</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>45.91026</v>
+        <v>380.20427</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>83.38271</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1540.50714</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1243.869</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2090,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>24.02577</v>
+        <v>7.814310000000001</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>32.77456</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>11.35156</v>
+        <v>5.45676</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>12.33791</v>
+        <v>0.13791</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>18.67884</v>
+        <v>0.37884</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3852.43704</v>
+        <v>6040.626560000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4000.21555</v>
+        <v>9351.738609999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3434.17466</v>
+        <v>6581.62468</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2867.90524</v>
+        <v>3077.10294</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4296.95081</v>
+        <v>4706.6757</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4210.326649999999</v>
+        <v>6057.18932</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4052.59664</v>
+        <v>6066.05981</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5331.33908</v>
+        <v>7838.6136</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>7841.80419</v>
+        <v>10091.74181</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>14685.70687</v>
+        <v>13920.07324</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>13799.59727</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>18120.05797</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16241.13</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>11740.60127</v>
+        <v>15623.42891</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7759.63541</v>
+        <v>17730.81442</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>10909.45156</v>
+        <v>13554.48509</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8378.51772</v>
+        <v>9917.712790000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>19323.12856</v>
+        <v>20950.69263</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>16978.6571</v>
+        <v>20217.84184</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>18987.14667</v>
+        <v>26083.64608</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>18780.77045</v>
+        <v>22581.57357</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>18844.76648</v>
+        <v>28171.8044</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>131591.89133</v>
+        <v>147692.31503</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>65952.85503999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>76805.97608999998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>96011.16099999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>571.0392099999999</v>
+        <v>622.7006</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>339.56134</v>
+        <v>372.9202099999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>166.05014</v>
+        <v>197.21345</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>243.03259</v>
+        <v>349.9152</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>298.0396500000001</v>
+        <v>304.99697</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>474.86443</v>
+        <v>455.77196</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>383.05292</v>
+        <v>276.29551</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>677.1944999999999</v>
+        <v>717.55021</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>870.71279</v>
+        <v>882.31524</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2144.07355</v>
+        <v>2145.69569</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2047.76782</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1977.66644</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2366.694</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2704.74173</v>
+        <v>2685.49948</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1185.88176</v>
+        <v>1420.61478</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1717.45136</v>
+        <v>1675.14385</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1798.1739</v>
+        <v>1974.9744</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5508.05198</v>
+        <v>6022.97273</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5202.203030000001</v>
+        <v>5194.08823</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3270.881019999999</v>
+        <v>3301.76708</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3938.03683</v>
+        <v>4326.98432</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2233.85885</v>
+        <v>2801.66765</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>10530.92091</v>
+        <v>10543.64068</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10037.71943</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>12569.75089</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>8379.366</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>11.04751</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2.1924</v>
+        <v>1225.50568</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>68.91995</v>
@@ -2288,70 +2364,80 @@
         <v>56.52011</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>146.38805</v>
+        <v>154.69169</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>10.36415</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>79.35088999999999</v>
+        <v>79.35364999999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>94.46719999999999</v>
+        <v>94.46789</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>175.89936</v>
+        <v>98.03896</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>33.32912</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>27.93357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>26.72798</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>382.333</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6369.09488</v>
+        <v>9996.359780000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5131.17854</v>
+        <v>6269.31074</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>7311.77644</v>
+        <v>10097.26775</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>4719.383650000001</v>
+        <v>5318.95272</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10956.95273</v>
+        <v>11910.16894</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>9143.492190000001</v>
+        <v>12332.8333</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>13297.72588</v>
+        <v>20020.51804</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10618.08644</v>
+        <v>13602.7225</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>13231.35528</v>
+        <v>21385.04011</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>111559.61395</v>
+        <v>127246.08607</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>47218.33158000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>53225.78026000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>79232.602</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>30.90089</v>
@@ -2363,7 +2449,7 @@
         <v>2.71071</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>52.71683</v>
+        <v>129.65385</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>74.37475000000001</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1612.38402</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1408.754</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>13.18756</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.00083</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2040.58949</v>
+        <v>2263.73309</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1069.04041</v>
+        <v>8410.682050000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1641.6263</v>
+        <v>1512.31272</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1508.69064</v>
+        <v>2087.69651</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2316.72336</v>
+        <v>2460.88951</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2147.7333</v>
+        <v>2224.7842</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1947.01246</v>
+        <v>2396.5883</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3408.12488</v>
+        <v>3794.98805</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2332.9402</v>
+        <v>3004.74244</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6962.37412</v>
+        <v>7361.98379</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5008.71779</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7393.66567</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4241.412</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>24892.31326</v>
+        <v>31749.29927</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>19319.92785</v>
+        <v>27392.00114</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>22847.26073</v>
+        <v>52539.06668</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>28952.55784</v>
+        <v>33882.86586999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>37321.98544999999</v>
+        <v>41171.22873</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>41970.4185</v>
+        <v>56147.92707</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>44066.12726000001</v>
+        <v>54213.99354</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>49541.21588</v>
+        <v>72167.43103000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>47386.88290999999</v>
+        <v>62840.44253</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>174996.30546</v>
+        <v>176266.13788</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>159181.73219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>172779.1668</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>155454.09</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>23400.2033</v>
+        <v>28203.35958</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>18641.23695</v>
+        <v>23385.81797</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>21753.4708</v>
+        <v>41374.36354999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>27167.27929</v>
+        <v>32032.06357</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>35779.51435</v>
+        <v>39655.08624</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>40930.93975</v>
+        <v>54293.88176999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>41461.10129999999</v>
+        <v>49779.32629</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>47103.40433</v>
+        <v>68726.46028</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>45384.09272</v>
+        <v>60170.86649</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>161160.96639</v>
+        <v>162836.76726</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>150495.28186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>163197.24444</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>148409.013</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1492.10996</v>
+        <v>3545.93969</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>678.6909000000001</v>
+        <v>4006.18317</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1093.78993</v>
+        <v>11164.70313</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1785.27855</v>
+        <v>1850.8023</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1542.4711</v>
+        <v>1516.14249</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1039.47875</v>
+        <v>1854.0453</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2605.02596</v>
+        <v>4434.66725</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2437.81155</v>
+        <v>3440.97075</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2002.79019</v>
+        <v>2669.57604</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>13835.33907</v>
+        <v>13429.37062</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>8686.45033</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>9581.92236</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7045.077</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>26022.61303</v>
+        <v>19533.75654</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>40277.81977</v>
+        <v>26598.5668</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>46588.74620999999</v>
+        <v>13112.61698</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>48575.07997999999</v>
+        <v>47946.7475</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>67146.60468</v>
+        <v>66571.55079000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>80945.77646000001</v>
+        <v>76139.69161999998</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>86786.96274</v>
+        <v>82128.6148</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>69290.01923000001</v>
+        <v>68779.12989</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>77549.74265</v>
+        <v>80132.69494</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>212109.50704</v>
+        <v>218557.77538</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>299636.41152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>294267.23217</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>454967.046</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9916.61354</v>
+        <v>11958.32938</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6717.16606</v>
+        <v>24563.52306</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6581.0813</v>
+        <v>8980.860060000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8541.19326</v>
+        <v>13199.88375</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>18255.1411</v>
+        <v>15327.0957</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>16146.69067</v>
+        <v>15483.7768</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>18176.21834</v>
+        <v>19765.7709</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>26691.37456</v>
+        <v>28192.01823</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>22084.49504</v>
+        <v>26322.70833</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>34063.41535</v>
+        <v>38798.97553</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>38666.81546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>101039.77023</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>63643.286</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>72.53083000000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>8.691459999999999</v>
+        <v>11.48516</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>127.50235</v>
+        <v>164.37325</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>60.97505</v>
+        <v>986.9070300000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>296.81639</v>
+        <v>312.49272</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>380.1708</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>230.97204</v>
+        <v>232.12601</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>147.08442</v>
+        <v>155.35201</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>136.00761</v>
+        <v>109.59984</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>237.16107</v>
+        <v>235.84062</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>191.18471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>268.93344</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>126.276</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9844.082709999999</v>
+        <v>11885.79855</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6708.4746</v>
+        <v>24552.0379</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6453.57895</v>
+        <v>8816.48681</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8480.218210000001</v>
+        <v>12212.97672</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>17958.32471</v>
+        <v>15014.60298</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>15766.51987</v>
+        <v>15103.606</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>17945.2463</v>
+        <v>19533.64489</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>26544.29014</v>
+        <v>28036.66622</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>21948.48743</v>
+        <v>26213.10849</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>33826.25428</v>
+        <v>38563.13491</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>38475.63075</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>100770.83679</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>63517.01</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8214.31043</v>
+        <v>27549.39968</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6306.23255</v>
+        <v>21350.38568</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>58282.7157</v>
+        <v>77267.91831000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>9394.952180000002</v>
+        <v>15268.64792</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10866.2413</v>
+        <v>14850.09105</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>36919.78029</v>
+        <v>41892.42995999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>17354.77641</v>
+        <v>18388.85819</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>59831.01243</v>
+        <v>52441.74118</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>13421.3199</v>
+        <v>13161.35625</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>62250.29454000001</v>
+        <v>65991.12596999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>26877.56788</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>43381.76356</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>39171.985</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1040.58922</v>
+        <v>15102.83539</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>963.62951</v>
+        <v>15637.14607</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1158.35986</v>
+        <v>12499.57439</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1287.9476</v>
+        <v>1723.54378</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1113.05028</v>
+        <v>1094.47211</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>644.69223</v>
+        <v>2104.50386</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>604.14161</v>
+        <v>679.40019</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1721.30457</v>
+        <v>1804.32721</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>554.47174</v>
+        <v>1023.35866</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1474.43422</v>
+        <v>1969.77163</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1285.7814</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5348.38728</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4609.968</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>483.20025</v>
+        <v>435.55188</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>279.90293</v>
+        <v>281.15789</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>215.7055</v>
+        <v>541.33051</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>259.97322</v>
+        <v>280.97425</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>260.17571</v>
+        <v>253.955</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>275.94706</v>
+        <v>458.82369</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>636.22138</v>
+        <v>796.5047000000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1607.04307</v>
+        <v>1866.44595</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>190.69416</v>
+        <v>699.1787200000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>380.9216</v>
+        <v>349.48155</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1047.7115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2469.17053</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>670.4059999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6690.520960000001</v>
+        <v>12011.01241</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5062.70011</v>
+        <v>5432.08172</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>56908.65034</v>
+        <v>64227.01341000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7847.031359999999</v>
+        <v>13264.12989</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9493.015310000001</v>
+        <v>13501.66394</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>35999.141</v>
+        <v>39329.10241000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>16114.41342</v>
+        <v>16912.9533</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>56502.66479</v>
+        <v>48770.96802</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>12676.154</v>
+        <v>11438.81887</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>60394.93872</v>
+        <v>63671.87279</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>24544.07498</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>35564.20575</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>33891.611</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>27724.91614</v>
+        <v>3942.686239999998</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>40688.75328</v>
+        <v>29811.70418</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-5112.888190000001</v>
+        <v>-55174.44127</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>47721.32106</v>
+        <v>45877.98333</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>74535.50448</v>
+        <v>67048.55544000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>60172.68684</v>
+        <v>49731.03846</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>87608.40467</v>
+        <v>83505.52751</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>36150.38136</v>
+        <v>44529.40694</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>86212.91778999999</v>
+        <v>93294.04702</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>183922.62785</v>
+        <v>191365.62494</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>311425.6591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>351925.2388399999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>479438.347</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>7747.52069</v>
+        <v>7844.15672</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>8868.31907</v>
+        <v>9147.459929999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>10246.14433</v>
+        <v>10420.29749</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>11614.56325</v>
+        <v>12358.79032</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>18260.05138</v>
+        <v>18606.46568</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>18182.19224</v>
+        <v>20150.50724</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>19429.29793</v>
+        <v>20611.02373</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>18987.80232</v>
+        <v>21342.85734</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>19182.38624</v>
+        <v>20863.28041</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>53264.59308000001</v>
+        <v>54910.90809</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>66144.40096</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>74687.88862</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>96734.61199999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>19977.39545</v>
+        <v>-3901.470480000002</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>31820.43421</v>
+        <v>20664.24425</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-15359.03252</v>
+        <v>-65594.73876000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>36106.75781</v>
+        <v>33519.19301</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>56275.4531</v>
+        <v>48442.08976</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>41990.49459999999</v>
+        <v>29580.53122</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>68179.10673999999</v>
+        <v>62894.50378</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>17162.57904</v>
+        <v>23186.5496</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>67030.53155</v>
+        <v>72430.76661000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>130658.03477</v>
+        <v>136454.71685</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>245281.25814</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>277237.35022</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>382703.735</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>615</v>
+        <v>560</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>637</v>
+        <v>591</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>665</v>
+        <v>617</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>804</v>
+        <v>724</v>
       </c>
       <c r="H59" s="35" t="n">
+        <v>762</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>797</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>841</v>
       </c>
-      <c r="I59" s="35" t="n">
-        <v>892</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>933</v>
-      </c>
       <c r="K59" s="35" t="n">
-        <v>965</v>
+        <v>844</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>726</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>